--- a/ig/core/StructureDefinition-medcom-core-observation.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:42:36+00:00</t>
+    <t>2025-10-29T07:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -602,7 +602,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -691,7 +691,7 @@
     <t>Observation.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
